--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_8_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_8_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36409.95167289703</v>
+        <v>7245580.38290651</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36409.95167289703</v>
+        <v>7245580.38290651</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16712.94256809836</v>
+        <v>1003722.759675606</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16712.94256809836</v>
+        <v>1003722.759675606</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1265345038.366093</v>
+        <v>50500813.43667943</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10226.22595790434</v>
+        <v>1112525.084507581</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19980.33480717093</v>
+        <v>2151479.637603179</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29734.44365643751</v>
+        <v>3190434.190698779</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40962.45226925059</v>
+        <v>4219028.597720421</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>52035.24472044745</v>
+        <v>5216734.988580448</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>63108.03717164434</v>
+        <v>6214441.379440472</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>74180.82962284122</v>
+        <v>7212147.770300494</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>86062.84929278179</v>
+        <v>8241409.426113057</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>97733.75711521518</v>
+        <v>9197496.666854145</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>109507.554935664</v>
+        <v>10174059.0172003</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>120251.3123856035</v>
+        <v>11213045.07547468</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>130199.5870072602</v>
+        <v>12221143.11758746</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>140303.077790533</v>
+        <v>13260129.17586186</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>150406.5685738059</v>
+        <v>14299115.23413626</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>160510.0593570787</v>
+        <v>15338101.29241066</v>
       </c>
     </row>
   </sheetData>
@@ -27037,34 +27037,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>262</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>217</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>133</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>385</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>490</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
